--- a/logs/baselines_large_seed42.xlsx
+++ b/logs/baselines_large_seed42.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/DebateBERT/logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/RooseBERT/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFEEC62-BB53-9E41-8AE9-8D8F62D46E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9394AED-0BD9-7A48-B0FD-F991AD437934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argument detection" sheetId="2" r:id="rId1"/>
@@ -629,9 +629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4877,7 +4877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6997,9 +6997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7095,22 +7095,22 @@
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6">
-        <v>5.0000000000000002E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G3" s="1">
         <v>512</v>
@@ -7119,7 +7119,7 @@
         <v>0.01</v>
       </c>
       <c r="I3" s="1">
-        <v>0.69117934676315274</v>
+        <v>0.69117934676315296</v>
       </c>
       <c r="J3" s="1">
         <v>0.52809324566646743</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -7145,7 +7145,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F4" s="6">
         <v>5.0000000000000002E-5</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -7180,13 +7180,13 @@
         <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F5" s="6">
-        <v>2.0000000000000002E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G5" s="1">
         <v>512</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -7218,10 +7218,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6">
         <v>2.0000000000000002E-5</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -7259,10 +7259,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F7" s="6">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G7" s="1">
         <v>512</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F8" s="6">
         <v>3.0000000000000001E-5</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -7332,13 +7332,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F9" s="6">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G9" s="1">
         <v>512</v>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -7370,10 +7370,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F10" s="6">
         <v>2.0000000000000002E-5</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -7408,13 +7408,13 @@
         <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F11" s="6">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G11" s="1">
         <v>512</v>
@@ -7437,7 +7437,7 @@
     </row>
     <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -7446,13 +7446,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>8</v>
       </c>
       <c r="F12" s="6">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G12" s="1">
         <v>512</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -7484,13 +7484,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F13" s="6">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G13" s="1">
         <v>512</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -7525,7 +7525,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F14" s="6">
         <v>3.0000000000000001E-5</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
@@ -7563,10 +7563,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G15" s="1">
         <v>512</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -7601,7 +7601,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F16" s="6">
         <v>2.0000000000000002E-5</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -7639,10 +7639,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F17" s="6">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="G17" s="1">
         <v>512</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
@@ -7680,7 +7680,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="6">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G18" s="1">
         <v>512</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -7715,7 +7715,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F19" s="6">
         <v>5.0000000000000002E-5</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -7750,13 +7750,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F20" s="6">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G20" s="1">
         <v>512</v>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
@@ -7791,7 +7791,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F21" s="6">
         <v>3.0000000000000001E-5</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -7826,13 +7826,13 @@
         <v>14</v>
       </c>
       <c r="D22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F22" s="6">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G22" s="1">
         <v>512</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
@@ -7864,10 +7864,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F23" s="6">
         <v>5.0000000000000002E-5</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>13</v>
@@ -7905,7 +7905,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F24" s="6">
         <v>5.0000000000000002E-5</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
@@ -7943,7 +7943,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F25" s="6">
         <v>5.0000000000000002E-5</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
@@ -7978,13 +7978,13 @@
         <v>14</v>
       </c>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F26" s="6">
-        <v>3.0000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="G26" s="1">
         <v>512</v>
@@ -8007,22 +8007,22 @@
     </row>
     <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
         <v>8</v>
       </c>
       <c r="F27" s="6">
-        <v>2.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="G27" s="1">
         <v>512</v>
@@ -8031,7 +8031,7 @@
         <v>0.01</v>
       </c>
       <c r="I27" s="1">
-        <v>0.69117934676315296</v>
+        <v>0.69117934676315274</v>
       </c>
       <c r="J27" s="1">
         <v>0.52809324566646743</v>
